--- a/Data/Predictions/Logistic Regression/smote_rating_change_model_3/smote_rating_change_model_3_predictions.xlsx
+++ b/Data/Predictions/Logistic Regression/smote_rating_change_model_3/smote_rating_change_model_3_predictions.xlsx
@@ -15655,7 +15655,7 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17015,7 +17015,7 @@
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19055,7 +19055,7 @@
       </c>
       <c r="D931" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>

--- a/Data/Predictions/Logistic Regression/smote_rating_change_model_3/smote_rating_change_model_3_predictions.xlsx
+++ b/Data/Predictions/Logistic Regression/smote_rating_change_model_3/smote_rating_change_model_3_predictions.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Upgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Upgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6575,7 +6575,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8695,7 +8695,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8895,7 +8895,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9215,7 +9215,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9455,7 +9455,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9755,7 +9755,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9775,7 +9775,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10975,7 +10975,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11295,7 +11295,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11455,7 +11455,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11575,7 +11575,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11895,7 +11895,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12015,7 +12015,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12055,7 +12055,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12075,7 +12075,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12095,7 +12095,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12155,7 +12155,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12375,7 +12375,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12655,7 +12655,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12815,7 +12815,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12855,7 +12855,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13095,7 +13095,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13115,7 +13115,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13235,7 +13235,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13335,7 +13335,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13435,7 +13435,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13515,7 +13515,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13655,7 +13655,7 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13975,7 +13975,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14035,7 +14035,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14135,7 +14135,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14315,7 +14315,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14335,7 +14335,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14395,7 +14395,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14595,7 +14595,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14715,7 +14715,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14855,7 +14855,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15095,7 +15095,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15115,7 +15115,7 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15135,7 +15135,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15255,7 +15255,7 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15275,7 +15275,7 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15375,7 +15375,7 @@
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15455,7 +15455,7 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15695,7 +15695,7 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15935,7 +15935,7 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16075,7 +16075,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16315,7 +16315,7 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16355,7 +16355,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16375,7 +16375,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16395,7 +16395,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16415,7 +16415,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16475,7 +16475,7 @@
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16555,7 +16555,7 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16755,7 +16755,7 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16975,7 +16975,7 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17015,7 +17015,7 @@
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17055,7 +17055,7 @@
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17075,7 +17075,7 @@
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17095,7 +17095,7 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17275,7 +17275,7 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17375,7 +17375,7 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17495,7 +17495,7 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17515,7 +17515,7 @@
       </c>
       <c r="D854" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17535,7 +17535,7 @@
       </c>
       <c r="D855" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="D856" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="D860" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17675,7 +17675,7 @@
       </c>
       <c r="D862" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="D869" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17835,7 +17835,7 @@
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17875,7 +17875,7 @@
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17895,7 +17895,7 @@
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18055,7 +18055,7 @@
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18095,7 +18095,7 @@
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18135,7 +18135,7 @@
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18155,7 +18155,7 @@
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18215,7 +18215,7 @@
       </c>
       <c r="D889" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18335,7 +18335,7 @@
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18475,7 +18475,7 @@
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18535,7 +18535,7 @@
       </c>
       <c r="D905" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18555,7 +18555,7 @@
       </c>
       <c r="D906" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18575,7 +18575,7 @@
       </c>
       <c r="D907" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="D908" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="D912" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18695,7 +18695,7 @@
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18715,7 +18715,7 @@
       </c>
       <c r="D914" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18735,7 +18735,7 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18775,7 +18775,7 @@
       </c>
       <c r="D917" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18815,7 +18815,7 @@
       </c>
       <c r="D919" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18875,7 +18875,7 @@
       </c>
       <c r="D922" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18895,7 +18895,7 @@
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19095,7 +19095,7 @@
       </c>
       <c r="D933" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19135,7 +19135,7 @@
       </c>
       <c r="D935" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="D939" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="D960" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19735,7 +19735,7 @@
       </c>
       <c r="D965" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19755,7 +19755,7 @@
       </c>
       <c r="D966" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19815,7 +19815,7 @@
       </c>
       <c r="D969" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19975,7 +19975,7 @@
       </c>
       <c r="D977" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20175,7 +20175,7 @@
       </c>
       <c r="D987" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20235,7 +20235,7 @@
       </c>
       <c r="D990" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="D992" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20295,7 +20295,7 @@
       </c>
       <c r="D993" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20355,7 +20355,7 @@
       </c>
       <c r="D996" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20375,7 +20375,7 @@
       </c>
       <c r="D997" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="D998" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20495,7 +20495,7 @@
       </c>
       <c r="D1003" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20515,7 +20515,7 @@
       </c>
       <c r="D1004" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20535,7 +20535,7 @@
       </c>
       <c r="D1005" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20555,7 +20555,7 @@
       </c>
       <c r="D1006" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20615,7 +20615,7 @@
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20635,7 +20635,7 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20715,7 +20715,7 @@
       </c>
       <c r="D1014" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20875,7 +20875,7 @@
       </c>
       <c r="D1022" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="D1032" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21115,7 +21115,7 @@
       </c>
       <c r="D1034" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="D1037" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21255,7 +21255,7 @@
       </c>
       <c r="D1041" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21335,7 +21335,7 @@
       </c>
       <c r="D1045" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21355,7 +21355,7 @@
       </c>
       <c r="D1046" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21375,7 +21375,7 @@
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21415,7 +21415,7 @@
       </c>
       <c r="D1049" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21595,7 +21595,7 @@
       </c>
       <c r="D1058" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="D1060" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21675,7 +21675,7 @@
       </c>
       <c r="D1062" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21775,7 +21775,7 @@
       </c>
       <c r="D1067" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21835,7 +21835,7 @@
       </c>
       <c r="D1070" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="D1072" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="D1084" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22235,7 +22235,7 @@
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22255,7 +22255,7 @@
       </c>
       <c r="D1091" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="D1092" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       </c>
       <c r="D1093" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22415,7 +22415,7 @@
       </c>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22555,7 +22555,7 @@
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       </c>
       <c r="D1107" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22635,7 +22635,7 @@
       </c>
       <c r="D1110" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22775,7 +22775,7 @@
       </c>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
